--- a/bf-25_demo.xlsx
+++ b/bf-25_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90cd75f8404dc538/@bf_doc/bf-025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5879" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{99B617FC-2FB8-4540-8028-BBFBB9F939BE}"/>
+  <xr:revisionPtr revIDLastSave="6491" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE0F21D0-CE92-4A23-AEE7-8B401CC52373}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="105" windowWidth="22755" windowHeight="14205" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
+    <workbookView xWindow="3465" yWindow="1740" windowWidth="22755" windowHeight="14205" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Font Editor" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CRGB color'!$A$3:$G$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Font Editor'!$A$4:$O$902</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1071</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1085</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="378">
   <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
@@ -1276,6 +1276,14 @@
   </si>
   <si>
     <t>Sun.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wifi..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTP..</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1427,7 +1435,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="464">
+  <dxfs count="472">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6381,7 +6469,7 @@
   <dimension ref="A1:O902"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16562,7 +16650,7 @@
       </c>
       <c r="O560" t="str">
         <f>_xlfn.CONCAT("  { ",N561:N566, "},  // ",C560, " ",D560)</f>
-        <v xml:space="preserve">  { 0x70, 0x88, 0x88, 0x88, 0x70, 0x00, },  // 0x4F O</v>
+        <v xml:space="preserve">  { 0xF0, 0x88, 0x88, 0x88, 0x78, 0x00, },  // 0x4F O</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.4">
@@ -16572,6 +16660,9 @@
       <c r="E561">
         <v>1</v>
       </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
       <c r="G561">
         <v>1</v>
       </c>
@@ -16583,7 +16674,7 @@
       </c>
       <c r="N561" t="str">
         <f t="shared" ref="N561" si="81">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:M$6, F561:M561),2), ", ")</f>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0xF0, </v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.4">
@@ -16656,9 +16747,12 @@
       <c r="I565">
         <v>1</v>
       </c>
+      <c r="J565">
+        <v>1</v>
+      </c>
       <c r="N565" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0x78, </v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.4">
@@ -19261,7 +19355,7 @@
       </c>
       <c r="O714" t="str">
         <f>_xlfn.CONCAT("  { ",N715:N720, "},  // ",C714, " ",D714)</f>
-        <v xml:space="preserve">  { 0x00, 0x70, 0x90, 0xA0, 0x78, 0x00, },  // 0x65 e</v>
+        <v xml:space="preserve">  { 0x00, 0x60, 0x90, 0xA0, 0x78, 0x00, },  // 0x65 e</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.4">
@@ -19289,12 +19383,9 @@
       <c r="H716">
         <v>1</v>
       </c>
-      <c r="I716">
-        <v>1</v>
-      </c>
       <c r="N716" t="str">
         <f t="shared" si="102"/>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0x60, </v>
       </c>
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.4">
@@ -20491,7 +20582,7 @@
       </c>
       <c r="O784" t="str">
         <f>_xlfn.CONCAT("  { ",N785:N790, "},  // ",C784, " ",D784)</f>
-        <v xml:space="preserve">  { 0x00, 0x70, 0x88, 0x88, 0x70, 0x00, },  // 0x6F o</v>
+        <v xml:space="preserve">  { 0x00, 0xF0, 0x88, 0x88, 0x78, 0x00, },  // 0x6F o</v>
       </c>
     </row>
     <row r="785" spans="1:15" x14ac:dyDescent="0.4">
@@ -20513,6 +20604,9 @@
       <c r="E786">
         <v>2</v>
       </c>
+      <c r="F786">
+        <v>1</v>
+      </c>
       <c r="G786">
         <v>1</v>
       </c>
@@ -20524,7 +20618,7 @@
       </c>
       <c r="N786" t="str">
         <f t="shared" si="111"/>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0xF0, </v>
       </c>
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.4">
@@ -20579,9 +20673,12 @@
       <c r="I789">
         <v>1</v>
       </c>
+      <c r="J789">
+        <v>1</v>
+      </c>
       <c r="N789" t="str">
         <f t="shared" si="111"/>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0x78, </v>
       </c>
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.4">
@@ -21241,7 +21338,7 @@
       </c>
       <c r="O826" t="str">
         <f>_xlfn.CONCAT("  { ",N827:N832, "},  // ",C826, " ",D826)</f>
-        <v xml:space="preserve">  { 0x00, 0x88, 0x88, 0x88, 0x70, 0x00, },  // 0x75 u</v>
+        <v xml:space="preserve">  { 0x00, 0x88, 0x88, 0x88, 0x78, 0x00, },  // 0x75 u</v>
       </c>
     </row>
     <row r="827" spans="1:15" x14ac:dyDescent="0.4">
@@ -21326,9 +21423,12 @@
       <c r="I831">
         <v>1</v>
       </c>
+      <c r="J831">
+        <v>1</v>
+      </c>
       <c r="N831" t="str">
         <f t="shared" si="111"/>
-        <v xml:space="preserve">0x70, </v>
+        <v xml:space="preserve">0x78, </v>
       </c>
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.4">
@@ -21475,7 +21575,7 @@
       </c>
       <c r="O840" t="str">
         <f>_xlfn.CONCAT("  { ",N841:N846, "},  // ",C840, " ",D840)</f>
-        <v xml:space="preserve">  { 0x00, 0x88, 0xA8, 0xA8, 0x50, 0x00, },  // 0x77 w</v>
+        <v xml:space="preserve">  { 0x00, 0xA8, 0xA8, 0xA8, 0x78, 0x00, },  // 0x77 w</v>
       </c>
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.4">
@@ -21500,12 +21600,15 @@
       <c r="F842">
         <v>1</v>
       </c>
+      <c r="H842">
+        <v>1</v>
+      </c>
       <c r="J842">
         <v>1</v>
       </c>
       <c r="N842" t="str">
         <f t="shared" si="120"/>
-        <v xml:space="preserve">0x88, </v>
+        <v xml:space="preserve">0xA8, </v>
       </c>
     </row>
     <row r="843" spans="1:15" x14ac:dyDescent="0.4">
@@ -21560,12 +21663,18 @@
       <c r="G845">
         <v>1</v>
       </c>
+      <c r="H845">
+        <v>1</v>
+      </c>
       <c r="I845">
+        <v>1</v>
+      </c>
+      <c r="J845">
         <v>1</v>
       </c>
       <c r="N845" t="str">
         <f t="shared" si="120"/>
-        <v xml:space="preserve">0x50, </v>
+        <v xml:space="preserve">0x78, </v>
       </c>
     </row>
     <row r="846" spans="1:15" x14ac:dyDescent="0.4">
@@ -22575,63 +22684,63 @@
   </sheetData>
   <autoFilter ref="A4:O902" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F8:L119 F455:L902 J127:K132 J141:L146 J155:K160 J169:K174 J183:K188 J197:K202 J211:K216 K120:L230 J225:K230">
-    <cfRule type="cellIs" dxfId="463" priority="12" operator="equal">
+  <conditionalFormatting sqref="F8:L119 J127:K132 J141:L146 J155:K160 J169:K174 J183:K188 J197:K202 J211:K216 K120:L230 J225:K230 F455:L902">
+    <cfRule type="cellIs" dxfId="471" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232:L454">
-    <cfRule type="cellIs" dxfId="462" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128 J135 K121 H120:J125 H127:H132 J142 H141:I146 I120:I230">
-    <cfRule type="cellIs" dxfId="461" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:H125 F120:G230">
-    <cfRule type="cellIs" dxfId="460" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:M902">
-    <cfRule type="cellIs" dxfId="459" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J125">
-    <cfRule type="cellIs" dxfId="458" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H160">
-    <cfRule type="cellIs" dxfId="457" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:H174">
-    <cfRule type="cellIs" dxfId="456" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:H188">
-    <cfRule type="cellIs" dxfId="455" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H202">
-    <cfRule type="cellIs" dxfId="454" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="453" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H230">
-    <cfRule type="cellIs" dxfId="452" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22642,10 +22751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16175E9B-06E7-4146-8CC3-9A79C625C9D2}">
-  <dimension ref="A1:W239"/>
+  <dimension ref="A1:W253"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W133" sqref="W133:W175"/>
+    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27592,7 +27701,7 @@
         <v xml:space="preserve">0x6010, </v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>173</v>
       </c>
@@ -27628,7 +27737,7 @@
         <v xml:space="preserve">0x933C, </v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>174</v>
       </c>
@@ -27649,7 +27758,7 @@
         <v xml:space="preserve">0x4090, </v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>175</v>
       </c>
@@ -27676,7 +27785,7 @@
         <v xml:space="preserve">0x2390, </v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>176</v>
       </c>
@@ -27703,7 +27812,7 @@
         <v xml:space="preserve">0x9490, </v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>177</v>
       </c>
@@ -27739,16 +27848,388 @@
         <v xml:space="preserve">0x634D, </v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D183" s="1"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D190" s="1"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="W182" t="str">
+        <f>_xlfn.CONCAT("  { ",V183:V188, "},  // ",C182, " ",D182)</f>
+        <v xml:space="preserve">  { 0x8AD0, 0x8880, 0xAA90, 0xAAD0, 0xAA90, 0x5295, },  //  Wifi..</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="V183" t="str">
+        <f>_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F183:U183),4), ", ")</f>
+        <v xml:space="preserve">0x8AD0, </v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="V184" t="str">
+        <f t="shared" ref="V184:V188" si="28">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F184:U184),4), ", ")</f>
+        <v xml:space="preserve">0x8880, </v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="V185" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">0xAA90, </v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="V186" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">0xAAD0, </v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="V187" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">0xAA90, </v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="U188">
+        <v>1</v>
+      </c>
+      <c r="V188" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">0x5295, </v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="W189" t="str">
+        <f>_xlfn.CONCAT("  { ",V190:V195, "},  // ",C189, " ",D189)</f>
+        <v xml:space="preserve">  { 0x8BB0, 0xC928, 0xA928, 0x9930, 0x8920, 0x8925, },  //  NTP..</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+      <c r="V190" t="str">
+        <f>_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F190:U190),4), ", ")</f>
+        <v xml:space="preserve">0x8BB0, </v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>187</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="V191" t="str">
+        <f t="shared" ref="V191:V195" si="29">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F191:U191),4), ", ")</f>
+        <v xml:space="preserve">0xC928, </v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>188</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="V192" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">0xA928, </v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>189</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="V193" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">0x9930, </v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>190</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="V194" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">0x8920, </v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="U195">
+        <v>1</v>
+      </c>
+      <c r="V195" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">0x8925, </v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D197" s="1"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D204" s="1"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.4">
@@ -27766,570 +28247,616 @@
     <row r="239" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D239" s="1"/>
     </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D253" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:W1071" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
+  <autoFilter ref="A4:W1085" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F624:L1071 J310:L315 J296:L301 K289:L295 K302:L309 J324:L329 K316:L323 J338:L343 K330:L337 J352:L357 K344:L351 J366:L371 K358:L365 J380:L385 K372:L379 K386:L399 J394:J399 F183:L288 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+  <conditionalFormatting sqref="F638:L1085 J324:L329 J310:L315 K303:L309 K316:L323 J338:L343 K330:L337 J352:L357 K344:L351 J366:L371 K358:L365 J380:L385 K372:L379 J394:L399 K386:L393 K400:L413 J408:J413 F197:L302 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+    <cfRule type="cellIs" dxfId="459" priority="607" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F415:L637">
+    <cfRule type="cellIs" dxfId="458" priority="606" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J311 J318 K304 H303:J308 H310:H315 J325 H324:I329 I309:I323 I330:I413">
+    <cfRule type="cellIs" dxfId="457" priority="605" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F303:H308 F309:G413">
+    <cfRule type="cellIs" dxfId="456" priority="604" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:M76 F197:M1085 I71:O76">
+    <cfRule type="cellIs" dxfId="455" priority="603" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J303:J308">
+    <cfRule type="cellIs" dxfId="454" priority="602" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H338:H343">
+    <cfRule type="cellIs" dxfId="453" priority="601" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H352:H357">
+    <cfRule type="cellIs" dxfId="452" priority="600" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H366:H371">
     <cfRule type="cellIs" dxfId="451" priority="599" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F401:L623">
+  <conditionalFormatting sqref="H380:H385">
     <cfRule type="cellIs" dxfId="450" priority="598" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J297 J304 K290 H289:J294 H296:H301 J311 H310:I315 I295:I309 I316:I399">
+  <conditionalFormatting sqref="H394:H399">
     <cfRule type="cellIs" dxfId="449" priority="597" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F289:H294 F295:G399">
+  <conditionalFormatting sqref="H408:H413">
     <cfRule type="cellIs" dxfId="448" priority="596" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:M76 F183:M1071 I71:O76">
+  <conditionalFormatting sqref="N638:T1085 R324:T329 R310:T315 S303:T309 S316:T323 R338:T343 S330:T337 R352:T357 S344:T351 R366:T371 S358:T365 R380:T385 S372:T379 R394:T399 S386:T393 S400:T413 R408:R413 N197:T302 N71:U76">
     <cfRule type="cellIs" dxfId="447" priority="595" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J289:J294">
+  <conditionalFormatting sqref="N415:T637">
     <cfRule type="cellIs" dxfId="446" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H324:H329">
+  <conditionalFormatting sqref="R311 R318 S304 P303:R308 P310:P315 R325 P324:Q329 Q309:Q323 Q330:Q413">
     <cfRule type="cellIs" dxfId="445" priority="593" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H338:H343">
+  <conditionalFormatting sqref="N303:P308 N309:O413">
     <cfRule type="cellIs" dxfId="444" priority="592" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H352:H357">
+  <conditionalFormatting sqref="N197:U1085 N70:U76">
     <cfRule type="cellIs" dxfId="443" priority="591" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H366:H371">
+  <conditionalFormatting sqref="R303:R308">
     <cfRule type="cellIs" dxfId="442" priority="590" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H380:H385">
+  <conditionalFormatting sqref="P338:P343">
     <cfRule type="cellIs" dxfId="441" priority="589" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H394:H399">
+  <conditionalFormatting sqref="P352:P357">
     <cfRule type="cellIs" dxfId="440" priority="588" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N624:T1071 R310:T315 R296:T301 S289:T295 S302:T309 R324:T329 S316:T323 R338:T343 S330:T337 R352:T357 S344:T351 R366:T371 S358:T365 R380:T385 S372:T379 S386:T399 R394:R399 N183:T288 N71:U76">
+  <conditionalFormatting sqref="P366:P371">
     <cfRule type="cellIs" dxfId="439" priority="587" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N401:T623">
+  <conditionalFormatting sqref="P380:P385">
     <cfRule type="cellIs" dxfId="438" priority="586" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R297 R304 S290 P289:R294 P296:P301 R311 P310:Q315 Q295:Q309 Q316:Q399">
+  <conditionalFormatting sqref="P394:P399">
     <cfRule type="cellIs" dxfId="437" priority="585" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N289:P294 N295:O399">
+  <conditionalFormatting sqref="P408:P413">
     <cfRule type="cellIs" dxfId="436" priority="584" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N183:U1071 N70:U76">
-    <cfRule type="cellIs" dxfId="435" priority="583" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R289:R294">
-    <cfRule type="cellIs" dxfId="434" priority="582" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P324:P329">
-    <cfRule type="cellIs" dxfId="433" priority="581" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P338:P343">
-    <cfRule type="cellIs" dxfId="432" priority="580" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P352:P357">
-    <cfRule type="cellIs" dxfId="431" priority="579" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P366:P371">
-    <cfRule type="cellIs" dxfId="430" priority="578" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P380:P385">
-    <cfRule type="cellIs" dxfId="429" priority="577" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P394:P399">
-    <cfRule type="cellIs" dxfId="428" priority="576" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84:U90 N182:U182">
-    <cfRule type="cellIs" dxfId="427" priority="572" operator="equal">
+  <conditionalFormatting sqref="N84:U90 N196:U196">
+    <cfRule type="cellIs" dxfId="435" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:U111 M106:Q111">
-    <cfRule type="cellIs" dxfId="426" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="568" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:U28">
-    <cfRule type="cellIs" dxfId="425" priority="528" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F182:L182 F85:M90">
-    <cfRule type="cellIs" dxfId="424" priority="575" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F182:M182 F84:M90">
-    <cfRule type="cellIs" dxfId="423" priority="574" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85:T90 N182:T182">
-    <cfRule type="cellIs" dxfId="422" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="536" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:L196 F85:M90">
+    <cfRule type="cellIs" dxfId="432" priority="583" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:M196 F84:M90">
+    <cfRule type="cellIs" dxfId="431" priority="582" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85:T90 N196:T196">
+    <cfRule type="cellIs" dxfId="430" priority="581" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111">
-    <cfRule type="cellIs" dxfId="421" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="569" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:M21">
-    <cfRule type="cellIs" dxfId="420" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="578" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:O111">
-    <cfRule type="cellIs" dxfId="419" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="571" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:U21">
-    <cfRule type="cellIs" dxfId="418" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:M111 H106:P111">
-    <cfRule type="cellIs" dxfId="417" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="570" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:L118">
-    <cfRule type="cellIs" dxfId="416" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="567" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="415" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="565" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="414" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="425" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N112:U112 R113:R118">
-    <cfRule type="cellIs" dxfId="413" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="564" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:Q111 K120:U125 N63:U76 N105:U125 N84:U97">
-    <cfRule type="cellIs" dxfId="412" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="556" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="411" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="555" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:M118">
-    <cfRule type="cellIs" dxfId="410" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="409" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="553" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113:Q118">
-    <cfRule type="cellIs" dxfId="408" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="550" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:M119">
-    <cfRule type="cellIs" dxfId="407" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:Q125">
-    <cfRule type="cellIs" dxfId="406" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="548" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N119:U119">
-    <cfRule type="cellIs" dxfId="405" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="560" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:L76 I71:M76 I85:M90 G120:M125 H64:M69 F105:L125 F84:L97">
-    <cfRule type="cellIs" dxfId="404" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="559" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:O111 I71:O76 F63:M76 H64:N69 F105:M125 G120:Q125 F84:M97">
-    <cfRule type="cellIs" dxfId="403" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="558" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111 Q113:U118 O71:U76 N64:T76 N105:T125 K120:U125 N84:T97">
-    <cfRule type="cellIs" dxfId="402" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="557" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="401" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="554" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
-    <cfRule type="cellIs" dxfId="400" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
+    <cfRule type="cellIs" dxfId="407" priority="551" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="406" priority="544" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113:N118">
+    <cfRule type="cellIs" dxfId="405" priority="549" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="404" priority="542" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:S125">
+    <cfRule type="cellIs" dxfId="403" priority="547" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="402" priority="546" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="401" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:M97">
+    <cfRule type="cellIs" dxfId="400" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:R125">
     <cfRule type="cellIs" dxfId="399" priority="543" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N91:U97">
+    <cfRule type="cellIs" dxfId="398" priority="538" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:L97">
+    <cfRule type="cellIs" dxfId="397" priority="541" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:U97">
+    <cfRule type="cellIs" dxfId="396" priority="539" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:M28">
+    <cfRule type="cellIs" dxfId="395" priority="537" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="394" priority="373" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:S50">
+    <cfRule type="cellIs" dxfId="393" priority="424" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:U42">
+    <cfRule type="cellIs" dxfId="392" priority="514" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:S44 R44">
+    <cfRule type="cellIs" dxfId="391" priority="512" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:T44">
+    <cfRule type="cellIs" dxfId="390" priority="511" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:U49">
+    <cfRule type="cellIs" dxfId="389" priority="474" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="388" priority="387" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="387" priority="384" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="386" priority="375" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="385" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="384" priority="374" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56:U56">
+    <cfRule type="cellIs" dxfId="383" priority="390" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62 O57:Q62">
+    <cfRule type="cellIs" dxfId="382" priority="388" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:M56">
+    <cfRule type="cellIs" dxfId="381" priority="391" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62">
+    <cfRule type="cellIs" dxfId="380" priority="389" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="379" priority="386" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="378" priority="383" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="377" priority="382" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="376" priority="381" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
+    <cfRule type="cellIs" dxfId="375" priority="380" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
+    <cfRule type="cellIs" dxfId="374" priority="379" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="373" priority="378" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="372" priority="377" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126:U139">
+    <cfRule type="cellIs" dxfId="371" priority="369" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F127:L139">
+    <cfRule type="cellIs" dxfId="370" priority="372" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F126:M139">
+    <cfRule type="cellIs" dxfId="369" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127:T139">
+    <cfRule type="cellIs" dxfId="368" priority="370" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="367" priority="367" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="366" priority="368" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="365" priority="366" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="364" priority="365" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="398" priority="536" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N113:N118">
-    <cfRule type="cellIs" dxfId="397" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="364" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="362" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="361" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="396" priority="534" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120:S125">
-    <cfRule type="cellIs" dxfId="395" priority="539" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="394" priority="538" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="393" priority="537" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:M97">
-    <cfRule type="cellIs" dxfId="392" priority="532" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:R125">
-    <cfRule type="cellIs" dxfId="391" priority="535" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N91:U97">
-    <cfRule type="cellIs" dxfId="390" priority="530" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:L97">
-    <cfRule type="cellIs" dxfId="389" priority="533" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92:U97">
-    <cfRule type="cellIs" dxfId="388" priority="531" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:M28">
-    <cfRule type="cellIs" dxfId="387" priority="529" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="386" priority="365" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="385" priority="416" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:U42">
-    <cfRule type="cellIs" dxfId="384" priority="506" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:S44 R44">
-    <cfRule type="cellIs" dxfId="383" priority="504" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:T44">
-    <cfRule type="cellIs" dxfId="382" priority="503" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:U49">
-    <cfRule type="cellIs" dxfId="381" priority="466" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="380" priority="379" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="379" priority="376" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="378" priority="367" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="377" priority="368" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="376" priority="366" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56:U56">
-    <cfRule type="cellIs" dxfId="375" priority="382" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62 O57:Q62">
-    <cfRule type="cellIs" dxfId="374" priority="380" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:M56">
-    <cfRule type="cellIs" dxfId="373" priority="383" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62">
-    <cfRule type="cellIs" dxfId="372" priority="381" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="371" priority="378" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="370" priority="375" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="369" priority="374" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="368" priority="373" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
-    <cfRule type="cellIs" dxfId="367" priority="372" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
-    <cfRule type="cellIs" dxfId="366" priority="371" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="365" priority="370" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="364" priority="369" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N126:U139">
-    <cfRule type="cellIs" dxfId="363" priority="361" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F127:L139">
-    <cfRule type="cellIs" dxfId="362" priority="364" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126:M139">
-    <cfRule type="cellIs" dxfId="361" priority="363" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N127:T139">
-    <cfRule type="cellIs" dxfId="360" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="359" priority="360" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="359" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="358" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="359" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O106:O111">
+    <cfRule type="cellIs" dxfId="356" priority="356" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="355" priority="357" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="353" priority="354" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="352" priority="353" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R113:R118">
+    <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="357" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="351" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="356" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="355" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="349" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="347" priority="348" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="345" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M71:M76">
+    <cfRule type="cellIs" dxfId="343" priority="344" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71:N76">
+    <cfRule type="cellIs" dxfId="342" priority="343" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="353" priority="354" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="352" priority="353" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="350" priority="350" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="349" priority="351" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O106:O111">
-    <cfRule type="cellIs" dxfId="348" priority="348" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="347" priority="349" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="344" priority="345" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="343" priority="344" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="342" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="339" priority="340" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28339,7 +28866,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="337" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28349,37 +28876,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:M76">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="335" priority="336" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N71:N76">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="334" priority="335" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="333" priority="334" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="333" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="329" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28389,72 +28916,72 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="327" priority="328" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="327" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="322" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="322" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="318" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="321" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="318" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="316" priority="317" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="318" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="317" priority="318" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="316" priority="317" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="315" priority="316" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="314" priority="315" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28464,27 +28991,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="312" priority="313" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="312" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="311" priority="312" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="310" priority="311" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="309" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="308" priority="309" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28494,17 +29021,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="306" priority="307" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="305" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="304" priority="305" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28514,27 +29041,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="302" priority="303" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="302" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="302" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="300" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="301" priority="302" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="300" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="298" priority="299" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28544,17 +29071,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="296" priority="297" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="296" priority="297" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="295" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="L120:L125">
     <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28564,52 +29091,52 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="K120:K125">
     <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="291" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="290" priority="291" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="290" priority="291" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="287" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="283" priority="284" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28619,27 +29146,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="281" priority="282" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="281" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="281" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="280" priority="281" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28649,17 +29176,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="274" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28669,27 +29196,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="271" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="271" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="267" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28699,72 +29226,72 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="265" priority="266" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="265" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="256" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="259" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="256" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="256" priority="257" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="255" priority="256" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="252" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28774,27 +29301,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="250" priority="251" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="250" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="249" priority="250" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28804,17 +29331,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="243" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28824,27 +29351,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28854,132 +29381,132 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
+    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:U35">
+    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:S37 Q37:R37">
+    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:T37">
+    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:L41">
+    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J37">
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="cellIs" dxfId="226" priority="227" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="225" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
+    <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98:U98">
+    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:S100 Q100:R100">
+    <cfRule type="cellIs" dxfId="222" priority="223" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:T100">
+    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:L104">
+    <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:J100">
+    <cfRule type="cellIs" dxfId="219" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100:K100">
+    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R100">
+    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="226" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="225" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
-    <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:U35">
-    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:S37 Q37:R37">
-    <cfRule type="cellIs" dxfId="222" priority="223" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:T37">
-    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:L41">
-    <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:J37">
-    <cfRule type="cellIs" dxfId="219" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
-    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N98:U98">
-    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S99:S100 Q100:R100">
     <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S99:T100">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:L104">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:J100">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J100:K100">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="210" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R100">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="209" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28994,22 +29521,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="203" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29019,7 +29546,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29034,17 +29561,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="197" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="196" priority="197" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29059,7 +29586,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29074,7 +29601,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="190" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29094,27 +29621,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R120:R125">
+    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="184" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="183" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29124,27 +29651,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R120:R125">
+    <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="180" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="179" priority="180" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R125">
-    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="177" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29154,17 +29681,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="174" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="174" priority="175" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="172" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29174,12 +29701,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29199,12 +29726,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29214,12 +29741,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29229,7 +29756,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29239,7 +29766,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29254,22 +29781,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="153" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29279,7 +29806,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29289,12 +29816,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29304,12 +29831,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29319,17 +29846,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29339,12 +29866,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29354,7 +29881,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29364,7 +29891,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29379,22 +29906,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="128" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29404,7 +29931,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29419,7 +29946,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29429,7 +29956,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29464,7 +29991,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29474,12 +30001,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29489,7 +30016,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29499,7 +30026,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29514,22 +30041,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29539,7 +30066,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29554,17 +30081,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29579,7 +30106,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29594,7 +30121,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29614,27 +30141,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29644,27 +30171,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29674,17 +30201,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29694,12 +30221,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29719,12 +30246,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29734,12 +30261,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29749,7 +30276,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29759,7 +30286,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29774,22 +30301,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29799,7 +30326,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29809,223 +30336,223 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="F15:U20">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F14:M14">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="N14:U14">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="F78:U83">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F77:M77">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="N77:U77">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:U20">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:M14">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:U14">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:U83">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:M77">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N77:U77">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N140:U146">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:L146">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140:M146">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N141:T146">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147:U153">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F148:L153">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147:M153">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N148:T153">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:U160">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:L146">
+  <conditionalFormatting sqref="F155:L160">
     <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140:M146">
+  <conditionalFormatting sqref="F154:M160">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N141:T146">
+  <conditionalFormatting sqref="N155:T160">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:U153">
+  <conditionalFormatting sqref="N161:U167">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148:L153">
+  <conditionalFormatting sqref="F162:M167">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:M153">
+  <conditionalFormatting sqref="F161:M167 K162:N167">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N148:T153">
+  <conditionalFormatting sqref="N162:T167">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:U160">
+  <conditionalFormatting sqref="N168:U174 M170:O174">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:L160">
+  <conditionalFormatting sqref="F169:M174">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154:M160">
+  <conditionalFormatting sqref="F168:M174 I169:N174">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155:T160">
+  <conditionalFormatting sqref="N169:T174 M170:O174">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N161:U167">
+  <conditionalFormatting sqref="N175:U181">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162:M167">
+  <conditionalFormatting sqref="F176:L181">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161:M167 K162:N167">
+  <conditionalFormatting sqref="F175:M181">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:T167">
+  <conditionalFormatting sqref="N176:T181">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N168:U174 M170:O174">
+  <conditionalFormatting sqref="N133:U139">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169:M174">
+  <conditionalFormatting sqref="K134:L139">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168:M174 I169:N174">
+  <conditionalFormatting sqref="F133:M133 K134:M139">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:T174 M170:O174">
+  <conditionalFormatting sqref="N134:T139">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N175:U181">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176:L181">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175:M181">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N176:T181">
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182:U188 K183:R188">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F183:O188">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:U139">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134:L139">
+  <conditionalFormatting sqref="F182:M188 F183:P188">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K183:U188">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F133:M133 K134:M139">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N134:T139">
+  <conditionalFormatting sqref="N189:U195 J190:R195">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F190:P195">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F189:M195 F190:Q195">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J190:U195">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30661,7 +31188,7 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/bf-25_demo.xlsx
+++ b/bf-25_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90cd75f8404dc538/@bf_doc/bf-025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6491" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE0F21D0-CE92-4A23-AEE7-8B401CC52373}"/>
+  <xr:revisionPtr revIDLastSave="6637" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{755FEADD-22D0-4383-AD5E-DF882F8244FB}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1740" windowWidth="22755" windowHeight="14205" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
+    <workbookView xWindow="1605" yWindow="2805" windowWidth="25410" windowHeight="13275" activeTab="3" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Font Editor" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CRGB color'!$A$3:$G$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Font Editor'!$A$4:$O$902</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1085</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1099</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="380">
   <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
@@ -1284,6 +1284,14 @@
   </si>
   <si>
     <t>NTP..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1435,7 +1443,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="472">
+  <dxfs count="480">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6468,9 +6556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E08B64E-A484-40F3-9CE7-4B401BBC00E9}">
   <dimension ref="A1:O902"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22685,62 +22771,62 @@
   <autoFilter ref="A4:O902" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F8:L119 J127:K132 J141:L146 J155:K160 J169:K174 J183:K188 J197:K202 J211:K216 K120:L230 J225:K230 F455:L902">
-    <cfRule type="cellIs" dxfId="471" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232:L454">
-    <cfRule type="cellIs" dxfId="470" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128 J135 K121 H120:J125 H127:H132 J142 H141:I146 I120:I230">
-    <cfRule type="cellIs" dxfId="469" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:H125 F120:G230">
-    <cfRule type="cellIs" dxfId="468" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:M902">
-    <cfRule type="cellIs" dxfId="467" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J125">
-    <cfRule type="cellIs" dxfId="466" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H160">
-    <cfRule type="cellIs" dxfId="465" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:H174">
-    <cfRule type="cellIs" dxfId="464" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:H188">
-    <cfRule type="cellIs" dxfId="463" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H202">
-    <cfRule type="cellIs" dxfId="462" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="461" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H230">
-    <cfRule type="cellIs" dxfId="460" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22751,11 +22837,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16175E9B-06E7-4146-8CC3-9A79C625C9D2}">
-  <dimension ref="A1:W253"/>
+  <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P200" sqref="P200"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28142,7 +28226,7 @@
         <v xml:space="preserve">0xA928, </v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>189</v>
       </c>
@@ -28172,7 +28256,7 @@
         <v xml:space="preserve">0x9930, </v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>190</v>
       </c>
@@ -28196,7 +28280,7 @@
         <v xml:space="preserve">0x8920, </v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>191</v>
       </c>
@@ -28226,16 +28310,331 @@
         <v xml:space="preserve">0x8925, </v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D197" s="1"/>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D204" s="1"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W196" t="str">
+        <f>_xlfn.CONCAT("  { ",V197:V202, "},  // ",C196, " ",D196)</f>
+        <v xml:space="preserve">  { 0xE800, 0x4346, 0x4AA9, 0x4AAA, 0x4AAC, 0x4AA7, },  //  Time</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="V197" t="str">
+        <f>_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F197:U197),4), ", ")</f>
+        <v xml:space="preserve">0xE800, </v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>194</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198">
+        <v>1</v>
+      </c>
+      <c r="V198" t="str">
+        <f t="shared" ref="V198:V202" si="30">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F198:U198),4), ", ")</f>
+        <v xml:space="preserve">0x4346, </v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>195</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="U199">
+        <v>1</v>
+      </c>
+      <c r="V199" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">0x4AA9, </v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>196</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="P200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+      <c r="V200" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">0x4AAA, </v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
+      <c r="V201" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">0x4AAC, </v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>198</v>
+      </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="P202">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="U202">
+        <v>1</v>
+      </c>
+      <c r="V202" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">0x4AA7, </v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>199</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="W203" t="str">
+        <f>_xlfn.CONCAT("  { ",V204:V209, "},  // ",C203, " ",D203)</f>
+        <v xml:space="preserve">  { 0xA000, 0xA000, 0x4000, 0xE000, 0xE000, 0x4000, },  //  \</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="V204" t="str">
+        <f>_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F204:U204),4), ", ")</f>
+        <v xml:space="preserve">0xA000, </v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>201</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="V205" t="str">
+        <f t="shared" ref="V205:V209" si="31">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F205:U205),4), ", ")</f>
+        <v xml:space="preserve">0xA000, </v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>202</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="V206" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">0x4000, </v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>203</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="V207" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">0xE000, </v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>204</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="V208" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">0xE000, </v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>205</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="V209" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">0x4000, </v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D211" s="1"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D218" s="1"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.4">
@@ -28253,570 +28652,616 @@
     <row r="253" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D253" s="1"/>
     </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D267" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:W1085" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
+  <autoFilter ref="A4:W1099" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F638:L1085 J324:L329 J310:L315 K303:L309 K316:L323 J338:L343 K330:L337 J352:L357 K344:L351 J366:L371 K358:L365 J380:L385 K372:L379 J394:L399 K386:L393 K400:L413 J408:J413 F197:L302 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+  <conditionalFormatting sqref="F652:L1099 J338:L343 J324:L329 K317:L323 K330:L337 J352:L357 K344:L351 J366:L371 K358:L365 J380:L385 K372:L379 J394:L399 K386:L393 J408:L413 K400:L407 K414:L427 J422:J427 F211:L316 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+    <cfRule type="cellIs" dxfId="467" priority="615" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F429:L651">
+    <cfRule type="cellIs" dxfId="466" priority="614" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325 J332 K318 H317:J322 H324:H329 J339 H338:I343 I323:I337 I344:I427">
+    <cfRule type="cellIs" dxfId="465" priority="613" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F317:H322 F323:G427">
+    <cfRule type="cellIs" dxfId="464" priority="612" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:M76 F211:M1099 I71:O76">
+    <cfRule type="cellIs" dxfId="463" priority="611" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J317:J322">
+    <cfRule type="cellIs" dxfId="462" priority="610" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H352:H357">
+    <cfRule type="cellIs" dxfId="461" priority="609" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H366:H371">
+    <cfRule type="cellIs" dxfId="460" priority="608" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H380:H385">
     <cfRule type="cellIs" dxfId="459" priority="607" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F415:L637">
+  <conditionalFormatting sqref="H394:H399">
     <cfRule type="cellIs" dxfId="458" priority="606" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J311 J318 K304 H303:J308 H310:H315 J325 H324:I329 I309:I323 I330:I413">
+  <conditionalFormatting sqref="H408:H413">
     <cfRule type="cellIs" dxfId="457" priority="605" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F303:H308 F309:G413">
+  <conditionalFormatting sqref="H422:H427">
     <cfRule type="cellIs" dxfId="456" priority="604" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:M76 F197:M1085 I71:O76">
+  <conditionalFormatting sqref="N652:T1099 R338:T343 R324:T329 S317:T323 S330:T337 R352:T357 S344:T351 R366:T371 S358:T365 R380:T385 S372:T379 R394:T399 S386:T393 R408:T413 S400:T407 S414:T427 R422:R427 N211:T316 N71:U76">
     <cfRule type="cellIs" dxfId="455" priority="603" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J303:J308">
+  <conditionalFormatting sqref="N429:T651">
     <cfRule type="cellIs" dxfId="454" priority="602" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H338:H343">
+  <conditionalFormatting sqref="R325 R332 S318 P317:R322 P324:P329 R339 P338:Q343 Q323:Q337 Q344:Q427">
     <cfRule type="cellIs" dxfId="453" priority="601" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H352:H357">
+  <conditionalFormatting sqref="N317:P322 N323:O427">
     <cfRule type="cellIs" dxfId="452" priority="600" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H366:H371">
+  <conditionalFormatting sqref="N211:U1099 N70:U76">
     <cfRule type="cellIs" dxfId="451" priority="599" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H380:H385">
+  <conditionalFormatting sqref="R317:R322">
     <cfRule type="cellIs" dxfId="450" priority="598" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H394:H399">
+  <conditionalFormatting sqref="P352:P357">
     <cfRule type="cellIs" dxfId="449" priority="597" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H408:H413">
+  <conditionalFormatting sqref="P366:P371">
     <cfRule type="cellIs" dxfId="448" priority="596" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N638:T1085 R324:T329 R310:T315 S303:T309 S316:T323 R338:T343 S330:T337 R352:T357 S344:T351 R366:T371 S358:T365 R380:T385 S372:T379 R394:T399 S386:T393 S400:T413 R408:R413 N197:T302 N71:U76">
+  <conditionalFormatting sqref="P380:P385">
     <cfRule type="cellIs" dxfId="447" priority="595" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N415:T637">
+  <conditionalFormatting sqref="P394:P399">
     <cfRule type="cellIs" dxfId="446" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R311 R318 S304 P303:R308 P310:P315 R325 P324:Q329 Q309:Q323 Q330:Q413">
+  <conditionalFormatting sqref="P408:P413">
     <cfRule type="cellIs" dxfId="445" priority="593" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N303:P308 N309:O413">
+  <conditionalFormatting sqref="P422:P427">
     <cfRule type="cellIs" dxfId="444" priority="592" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197:U1085 N70:U76">
-    <cfRule type="cellIs" dxfId="443" priority="591" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R303:R308">
-    <cfRule type="cellIs" dxfId="442" priority="590" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P338:P343">
-    <cfRule type="cellIs" dxfId="441" priority="589" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P352:P357">
-    <cfRule type="cellIs" dxfId="440" priority="588" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P366:P371">
-    <cfRule type="cellIs" dxfId="439" priority="587" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P380:P385">
-    <cfRule type="cellIs" dxfId="438" priority="586" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P394:P399">
-    <cfRule type="cellIs" dxfId="437" priority="585" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P408:P413">
-    <cfRule type="cellIs" dxfId="436" priority="584" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84:U90 N196:U196">
-    <cfRule type="cellIs" dxfId="435" priority="580" operator="equal">
+  <conditionalFormatting sqref="N84:U90 N210:U210">
+    <cfRule type="cellIs" dxfId="443" priority="588" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:U111 M106:Q111">
-    <cfRule type="cellIs" dxfId="434" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:U28">
-    <cfRule type="cellIs" dxfId="433" priority="536" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:L196 F85:M90">
-    <cfRule type="cellIs" dxfId="432" priority="583" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:M196 F84:M90">
-    <cfRule type="cellIs" dxfId="431" priority="582" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85:T90 N196:T196">
-    <cfRule type="cellIs" dxfId="430" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="544" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210:L210 F85:M90">
+    <cfRule type="cellIs" dxfId="440" priority="591" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210:M210 F84:M90">
+    <cfRule type="cellIs" dxfId="439" priority="590" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85:T90 N210:T210">
+    <cfRule type="cellIs" dxfId="438" priority="589" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111">
-    <cfRule type="cellIs" dxfId="429" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="577" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:M21">
-    <cfRule type="cellIs" dxfId="428" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="586" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:O111">
-    <cfRule type="cellIs" dxfId="427" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="579" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:U21">
-    <cfRule type="cellIs" dxfId="426" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="584" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:M111 H106:P111">
-    <cfRule type="cellIs" dxfId="425" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="578" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:L118">
-    <cfRule type="cellIs" dxfId="424" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="575" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="423" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="573" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="422" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N112:U112 R113:R118">
-    <cfRule type="cellIs" dxfId="421" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="572" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:Q111 K120:U125 N63:U76 N105:U125 N84:U97">
-    <cfRule type="cellIs" dxfId="420" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="564" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="419" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="563" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:M118">
-    <cfRule type="cellIs" dxfId="418" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="574" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="417" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="561" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113:Q118">
-    <cfRule type="cellIs" dxfId="416" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="558" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:M119">
-    <cfRule type="cellIs" dxfId="415" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="570" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:Q125">
-    <cfRule type="cellIs" dxfId="414" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="556" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N119:U119">
-    <cfRule type="cellIs" dxfId="413" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="568" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:L76 I71:M76 I85:M90 G120:M125 H64:M69 F105:L125 F84:L97">
-    <cfRule type="cellIs" dxfId="412" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="567" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:O111 I71:O76 F63:M76 H64:N69 F105:M125 G120:Q125 F84:M97">
-    <cfRule type="cellIs" dxfId="411" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111 Q113:U118 O71:U76 N64:T76 N105:T125 K120:U125 N84:T97">
-    <cfRule type="cellIs" dxfId="410" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="565" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="409" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
-    <cfRule type="cellIs" dxfId="408" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="560" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
+    <cfRule type="cellIs" dxfId="415" priority="559" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="414" priority="552" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113:N118">
+    <cfRule type="cellIs" dxfId="413" priority="557" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="412" priority="550" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:S125">
+    <cfRule type="cellIs" dxfId="411" priority="555" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="410" priority="554" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="409" priority="553" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:M97">
+    <cfRule type="cellIs" dxfId="408" priority="548" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:R125">
     <cfRule type="cellIs" dxfId="407" priority="551" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N91:U97">
+    <cfRule type="cellIs" dxfId="406" priority="546" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:L97">
+    <cfRule type="cellIs" dxfId="405" priority="549" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:U97">
+    <cfRule type="cellIs" dxfId="404" priority="547" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:M28">
+    <cfRule type="cellIs" dxfId="403" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="402" priority="381" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:S50">
+    <cfRule type="cellIs" dxfId="401" priority="432" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:U42">
+    <cfRule type="cellIs" dxfId="400" priority="522" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:S44 R44">
+    <cfRule type="cellIs" dxfId="399" priority="520" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:T44">
+    <cfRule type="cellIs" dxfId="398" priority="519" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:U49">
+    <cfRule type="cellIs" dxfId="397" priority="482" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="396" priority="395" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="395" priority="392" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="394" priority="383" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="393" priority="384" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="392" priority="382" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56:U56">
+    <cfRule type="cellIs" dxfId="391" priority="398" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62 O57:Q62">
+    <cfRule type="cellIs" dxfId="390" priority="396" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:M56">
+    <cfRule type="cellIs" dxfId="389" priority="399" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62">
+    <cfRule type="cellIs" dxfId="388" priority="397" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="387" priority="394" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="386" priority="391" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="385" priority="390" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="384" priority="389" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
+    <cfRule type="cellIs" dxfId="383" priority="388" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
+    <cfRule type="cellIs" dxfId="382" priority="387" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="381" priority="386" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="380" priority="385" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126:U139">
+    <cfRule type="cellIs" dxfId="379" priority="377" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F127:L139">
+    <cfRule type="cellIs" dxfId="378" priority="380" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F126:M139">
+    <cfRule type="cellIs" dxfId="377" priority="379" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127:T139">
+    <cfRule type="cellIs" dxfId="376" priority="378" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="375" priority="375" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="374" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="373" priority="374" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="372" priority="373" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="406" priority="544" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N113:N118">
-    <cfRule type="cellIs" dxfId="405" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="372" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="370" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="369" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="404" priority="542" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120:S125">
-    <cfRule type="cellIs" dxfId="403" priority="547" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="402" priority="546" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="401" priority="545" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:M97">
-    <cfRule type="cellIs" dxfId="400" priority="540" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:R125">
-    <cfRule type="cellIs" dxfId="399" priority="543" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N91:U97">
-    <cfRule type="cellIs" dxfId="398" priority="538" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:L97">
-    <cfRule type="cellIs" dxfId="397" priority="541" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92:U97">
-    <cfRule type="cellIs" dxfId="396" priority="539" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:M28">
-    <cfRule type="cellIs" dxfId="395" priority="537" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="394" priority="373" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="393" priority="424" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:U42">
-    <cfRule type="cellIs" dxfId="392" priority="514" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:S44 R44">
-    <cfRule type="cellIs" dxfId="391" priority="512" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:T44">
-    <cfRule type="cellIs" dxfId="390" priority="511" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:U49">
-    <cfRule type="cellIs" dxfId="389" priority="474" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="388" priority="387" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="387" priority="384" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="386" priority="375" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="385" priority="376" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="384" priority="374" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56:U56">
-    <cfRule type="cellIs" dxfId="383" priority="390" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62 O57:Q62">
-    <cfRule type="cellIs" dxfId="382" priority="388" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:M56">
-    <cfRule type="cellIs" dxfId="381" priority="391" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62">
-    <cfRule type="cellIs" dxfId="380" priority="389" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="379" priority="386" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="378" priority="383" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="377" priority="382" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="376" priority="381" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
-    <cfRule type="cellIs" dxfId="375" priority="380" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
-    <cfRule type="cellIs" dxfId="374" priority="379" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="373" priority="378" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="372" priority="377" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N126:U139">
-    <cfRule type="cellIs" dxfId="371" priority="369" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F127:L139">
-    <cfRule type="cellIs" dxfId="370" priority="372" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126:M139">
-    <cfRule type="cellIs" dxfId="369" priority="371" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N127:T139">
-    <cfRule type="cellIs" dxfId="368" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="369" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="367" priority="368" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="367" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="366" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="367" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O106:O111">
+    <cfRule type="cellIs" dxfId="364" priority="364" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="363" priority="365" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="362" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="361" priority="362" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R113:R118">
+    <cfRule type="cellIs" dxfId="359" priority="360" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="365" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="359" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="364" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="363" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="357" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="355" priority="356" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="353" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="362" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="353" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M71:M76">
+    <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71:N76">
+    <cfRule type="cellIs" dxfId="350" priority="351" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="361" priority="362" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="359" priority="360" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="358" priority="358" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="357" priority="359" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O106:O111">
-    <cfRule type="cellIs" dxfId="356" priority="356" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="355" priority="357" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="353" priority="354" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="352" priority="353" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="350" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="349" priority="350" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="348" priority="349" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="347" priority="348" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28826,7 +29271,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28836,37 +29281,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:M76">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="343" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N71:N76">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="342" priority="343" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="339" priority="340" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="339" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="339" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="338" priority="339" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="337" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28876,72 +29321,72 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="335" priority="336" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="335" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="335" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="334" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="333" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="330" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="328" priority="329" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="327" priority="328" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="329" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="328" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="327" priority="328" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="322" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28951,27 +29396,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="318" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="317" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="316" priority="317" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -28981,17 +29426,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="314" priority="315" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="313" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="312" priority="313" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29001,27 +29446,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="310" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="310" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="310" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="308" priority="309" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="309" priority="310" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="308" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="307" priority="308" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="306" priority="307" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29031,17 +29476,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="304" priority="305" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="304" priority="305" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="303" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="L120:L125">
     <cfRule type="cellIs" dxfId="302" priority="303" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29051,52 +29496,52 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="K120:K125">
     <cfRule type="cellIs" dxfId="300" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="298" priority="299" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="297" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="296" priority="297" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="298" priority="299" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="297" priority="298" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="296" priority="297" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="295" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="293" priority="294" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="293" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="291" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29106,27 +29551,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="287" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29136,17 +29581,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="283" priority="284" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="282" priority="283" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="281" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29156,27 +29601,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29186,72 +29631,72 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="273" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="272" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="271" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="268" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="265" priority="266" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="267" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="265" priority="266" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29261,27 +29706,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="256" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="255" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29291,17 +29736,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="252" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="251" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="250" priority="251" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29311,27 +29756,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="245" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29341,132 +29786,132 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:U35">
+    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:S37 Q37:R37">
+    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:T37">
+    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:L41">
+    <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J37">
+    <cfRule type="cellIs" dxfId="235" priority="236" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
+    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98:U98">
+    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:S100 Q100:R100">
+    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:T100">
+    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:L104">
+    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:J100">
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100:K100">
+    <cfRule type="cellIs" dxfId="226" priority="227" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R100">
+    <cfRule type="cellIs" dxfId="225" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="235" priority="236" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
-    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:U35">
-    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:S37 Q37:R37">
-    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:T37">
-    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:L41">
-    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:J37">
-    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="cellIs" dxfId="226" priority="227" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="225" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
-    <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N98:U98">
-    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S99:S100 Q100:R100">
     <cfRule type="cellIs" dxfId="222" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S99:T100">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:L104">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:J100">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="219" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J100:K100">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R100">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29481,22 +29926,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29506,7 +29951,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="209" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29521,17 +29966,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29546,7 +29991,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29561,7 +30006,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29581,27 +30026,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R120:R125">
+    <cfRule type="cellIs" dxfId="194" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="194" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="193" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="192" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="191" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="190" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29611,27 +30056,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R120:R125">
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R125">
-    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="184" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29641,17 +30086,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="181" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29661,12 +30106,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="177" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29686,12 +30131,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="172" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29701,12 +30146,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29716,7 +30161,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="167" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29726,7 +30171,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29741,22 +30186,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29766,7 +30211,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29776,12 +30221,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="155" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29791,12 +30236,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29806,17 +30251,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29826,12 +30271,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29841,7 +30286,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29851,7 +30296,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29866,22 +30311,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29891,7 +30336,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29906,7 +30351,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29916,7 +30361,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29951,7 +30396,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29961,12 +30406,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29976,7 +30421,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29986,7 +30431,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30001,22 +30446,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30026,7 +30471,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30041,17 +30486,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30066,7 +30511,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30081,7 +30526,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30101,27 +30546,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30131,27 +30576,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30161,17 +30606,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30181,12 +30626,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30206,12 +30651,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30221,12 +30666,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30236,7 +30681,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30246,7 +30691,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30261,22 +30706,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30286,7 +30731,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30296,262 +30741,262 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="F15:U20">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F14:M14">
     <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="N14:U14">
     <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="F78:U83">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F77:M77">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="N77:U77">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:U20">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:M14">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:U14">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:U83">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:M77">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N77:U77">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N140:U146">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:L146">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140:M146">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N141:T146">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147:U153">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F148:L153">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147:M153">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N148:T153">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:U160">
     <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:L146">
+  <conditionalFormatting sqref="F155:L160">
     <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140:M146">
+  <conditionalFormatting sqref="F154:M160">
     <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N141:T146">
+  <conditionalFormatting sqref="N155:T160">
     <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:U153">
+  <conditionalFormatting sqref="N161:U167">
     <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148:L153">
+  <conditionalFormatting sqref="F162:M167">
     <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:M153">
+  <conditionalFormatting sqref="F161:M167 K162:N167">
     <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N148:T153">
+  <conditionalFormatting sqref="N162:T167">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:U160">
+  <conditionalFormatting sqref="N168:U174 M170:O174">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:L160">
+  <conditionalFormatting sqref="F169:M174">
     <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154:M160">
+  <conditionalFormatting sqref="F168:M174 I169:N174">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155:T160">
+  <conditionalFormatting sqref="N169:T174 M170:O174">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N161:U167">
+  <conditionalFormatting sqref="N175:U181">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162:M167">
+  <conditionalFormatting sqref="F176:L181">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161:M167 K162:N167">
+  <conditionalFormatting sqref="F175:M181">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:T167">
+  <conditionalFormatting sqref="N176:T181">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N168:U174 M170:O174">
+  <conditionalFormatting sqref="N133:U139">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169:M174">
+  <conditionalFormatting sqref="K134:L139">
     <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168:M174 I169:N174">
+  <conditionalFormatting sqref="F133:M133 K134:M139">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:T174 M170:O174">
+  <conditionalFormatting sqref="N134:T139">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N175:U181">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176:L181">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175:M181">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N176:T181">
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182:U188 K183:R188">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F183:O188">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:U139">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134:L139">
+  <conditionalFormatting sqref="F182:M188 F183:P188">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K183:U188">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F133:M133 K134:M139">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N134:T139">
+  <conditionalFormatting sqref="N189:U195 J190:R195">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F190:P195">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N182:U188 K183:R188">
+  <conditionalFormatting sqref="F189:M195 F190:Q195">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J190:U195">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N196:U202 J197:M202">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F183:O188">
+  <conditionalFormatting sqref="F197:P202">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182:M188 F183:P188">
+  <conditionalFormatting sqref="F196:M202 N197:Q202">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K183:U188">
+  <conditionalFormatting sqref="J197:U202">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N189:U195 J190:R195">
+  <conditionalFormatting sqref="N203:U209 J204:M209">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190:P195">
+  <conditionalFormatting sqref="F204:P209">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F189:M195 F190:Q195">
+  <conditionalFormatting sqref="F203:M209 N204:Q209">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J190:U195">
+  <conditionalFormatting sqref="J204:U209">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30565,9 +31010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7847ADC9-B748-493D-94C9-A3E5E8901363}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -31187,9 +31630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C26151-CF70-4A75-ADFC-9BB3B293083D}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/bf-25_demo.xlsx
+++ b/bf-25_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90cd75f8404dc538/@bf_doc/bf-025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6637" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{755FEADD-22D0-4383-AD5E-DF882F8244FB}"/>
+  <xr:revisionPtr revIDLastSave="6700" documentId="8_{1EB520FB-1B9A-4E43-801B-FB3794A0D1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE2963DB-8FA3-4389-A435-D1703CBCC1A8}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2805" windowWidth="25410" windowHeight="13275" activeTab="3" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
+    <workbookView xWindow="1605" yWindow="2805" windowWidth="25410" windowHeight="13275" xr2:uid="{E479EC97-783D-4EBD-8D7C-89F4384D6B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Font Editor" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CRGB color'!$A$3:$G$153</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Font Editor'!$A$4:$O$902</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1099</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pattern Editor'!$A$4:$W$1106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="381">
   <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
@@ -1292,6 +1292,10 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1443,7 +1447,47 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="480">
+  <dxfs count="484">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6556,7 +6600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E08B64E-A484-40F3-9CE7-4B401BBC00E9}">
   <dimension ref="A1:O902"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22771,62 +22815,62 @@
   <autoFilter ref="A4:O902" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F8:L119 J127:K132 J141:L146 J155:K160 J169:K174 J183:K188 J197:K202 J211:K216 K120:L230 J225:K230 F455:L902">
-    <cfRule type="cellIs" dxfId="479" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232:L454">
-    <cfRule type="cellIs" dxfId="478" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128 J135 K121 H120:J125 H127:H132 J142 H141:I146 I120:I230">
-    <cfRule type="cellIs" dxfId="477" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:H125 F120:G230">
-    <cfRule type="cellIs" dxfId="476" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:M902">
-    <cfRule type="cellIs" dxfId="475" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:J125">
-    <cfRule type="cellIs" dxfId="474" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H160">
-    <cfRule type="cellIs" dxfId="473" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:H174">
-    <cfRule type="cellIs" dxfId="472" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:H188">
-    <cfRule type="cellIs" dxfId="471" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H202">
-    <cfRule type="cellIs" dxfId="470" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="469" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H230">
-    <cfRule type="cellIs" dxfId="468" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22837,7 +22881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16175E9B-06E7-4146-8CC3-9A79C625C9D2}">
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:W274"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -28616,7 +28660,7 @@
         <v xml:space="preserve">0xE000, </v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>205</v>
       </c>
@@ -28631,10 +28675,202 @@
         <v xml:space="preserve">0x4000, </v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="D211" s="1"/>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>206</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="W210" t="str">
+        <f>_xlfn.CONCAT("  { ",V211:V216, "},  // ",C210, " ",D210)</f>
+        <v xml:space="preserve">  { 0x6200, 0x9766, 0x4255, 0x2255, 0x9256, 0x6134, },  //  Stop</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>207</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="V211" t="str">
+        <f>_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F211:U211),4), ", ")</f>
+        <v xml:space="preserve">0x6200, </v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>1</v>
+      </c>
+      <c r="P212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>1</v>
+      </c>
+      <c r="T212">
+        <v>1</v>
+      </c>
+      <c r="V212" t="str">
+        <f t="shared" ref="V212:V216" si="32">_xlfn.CONCAT("0x",DEC2HEX(SUMPRODUCT(F$6:U$6, F212:U212),4), ", ")</f>
+        <v xml:space="preserve">0x9766, </v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>209</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+      <c r="U213">
+        <v>1</v>
+      </c>
+      <c r="V213" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">0x4255, </v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>210</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="Q214">
+        <v>1</v>
+      </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
+      <c r="U214">
+        <v>1</v>
+      </c>
+      <c r="V214" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">0x2255, </v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>211</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
+      <c r="Q215">
+        <v>1</v>
+      </c>
+      <c r="S215">
+        <v>1</v>
+      </c>
+      <c r="T215">
+        <v>1</v>
+      </c>
+      <c r="V215" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">0x9256, </v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>212</v>
+      </c>
+      <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="P216">
+        <v>1</v>
+      </c>
+      <c r="Q216">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>1</v>
+      </c>
+      <c r="V216" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">0x6134, </v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D218" s="1"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.4">
@@ -28658,580 +28894,603 @@
     <row r="267" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D267" s="1"/>
     </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D274" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:W1099" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
+  <autoFilter ref="A4:W1106" xr:uid="{8C553ADE-6202-45B8-A90D-4A908C6EDFB3}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F652:L1099 J338:L343 J324:L329 K317:L323 K330:L337 J352:L357 K344:L351 J366:L371 K358:L365 J380:L385 K372:L379 J394:L399 K386:L393 J408:L413 K400:L407 K414:L427 J422:J427 F211:L316 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+  <conditionalFormatting sqref="F659:L1106 J345:L350 J331:L336 K324:L330 K337:L344 J359:L364 K351:L358 J373:L378 K365:L372 J387:L392 K379:L386 J401:L406 K393:L400 J415:L420 K407:L414 K421:L434 J429:J434 F218:L323 R45:U48 R44:S48 U43:U48 F43:R48 F42:M55 N50:U55 F29:U34 F7:U13 F70:U76 F105:U118 F22:U27 F84:U97">
+    <cfRule type="cellIs" dxfId="471" priority="619" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F436:L658">
+    <cfRule type="cellIs" dxfId="470" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J332 J339 K325 H324:J329 H331:H336 J346 H345:I350 I330:I344 I351:I434">
+    <cfRule type="cellIs" dxfId="469" priority="617" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F324:H329 F330:G434">
+    <cfRule type="cellIs" dxfId="468" priority="616" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:M76 F218:M1106 I71:O76">
     <cfRule type="cellIs" dxfId="467" priority="615" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F429:L651">
+  <conditionalFormatting sqref="J324:J329">
     <cfRule type="cellIs" dxfId="466" priority="614" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J325 J332 K318 H317:J322 H324:H329 J339 H338:I343 I323:I337 I344:I427">
+  <conditionalFormatting sqref="H359:H364">
     <cfRule type="cellIs" dxfId="465" priority="613" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F317:H322 F323:G427">
+  <conditionalFormatting sqref="H373:H378">
     <cfRule type="cellIs" dxfId="464" priority="612" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:M76 F211:M1099 I71:O76">
+  <conditionalFormatting sqref="H387:H392">
     <cfRule type="cellIs" dxfId="463" priority="611" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J317:J322">
+  <conditionalFormatting sqref="H401:H406">
     <cfRule type="cellIs" dxfId="462" priority="610" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H352:H357">
+  <conditionalFormatting sqref="H415:H420">
     <cfRule type="cellIs" dxfId="461" priority="609" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H366:H371">
+  <conditionalFormatting sqref="H429:H434">
     <cfRule type="cellIs" dxfId="460" priority="608" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H380:H385">
+  <conditionalFormatting sqref="N659:T1106 R345:T350 R331:T336 S324:T330 S337:T344 R359:T364 S351:T358 R373:T378 S365:T372 R387:T392 S379:T386 R401:T406 S393:T400 R415:T420 S407:T414 S421:T434 R429:R434 N218:T323 N71:U76">
     <cfRule type="cellIs" dxfId="459" priority="607" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H394:H399">
+  <conditionalFormatting sqref="N436:T658">
     <cfRule type="cellIs" dxfId="458" priority="606" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H408:H413">
+  <conditionalFormatting sqref="R332 R339 S325 P324:R329 P331:P336 R346 P345:Q350 Q330:Q344 Q351:Q434">
     <cfRule type="cellIs" dxfId="457" priority="605" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H422:H427">
+  <conditionalFormatting sqref="N324:P329 N330:O434">
     <cfRule type="cellIs" dxfId="456" priority="604" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N652:T1099 R338:T343 R324:T329 S317:T323 S330:T337 R352:T357 S344:T351 R366:T371 S358:T365 R380:T385 S372:T379 R394:T399 S386:T393 R408:T413 S400:T407 S414:T427 R422:R427 N211:T316 N71:U76">
+  <conditionalFormatting sqref="N218:U1106 N70:U76">
     <cfRule type="cellIs" dxfId="455" priority="603" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N429:T651">
+  <conditionalFormatting sqref="R324:R329">
     <cfRule type="cellIs" dxfId="454" priority="602" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R325 R332 S318 P317:R322 P324:P329 R339 P338:Q343 Q323:Q337 Q344:Q427">
+  <conditionalFormatting sqref="P359:P364">
     <cfRule type="cellIs" dxfId="453" priority="601" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N317:P322 N323:O427">
+  <conditionalFormatting sqref="P373:P378">
     <cfRule type="cellIs" dxfId="452" priority="600" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N211:U1099 N70:U76">
+  <conditionalFormatting sqref="P387:P392">
     <cfRule type="cellIs" dxfId="451" priority="599" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R317:R322">
+  <conditionalFormatting sqref="P401:P406">
     <cfRule type="cellIs" dxfId="450" priority="598" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P352:P357">
+  <conditionalFormatting sqref="P415:P420">
     <cfRule type="cellIs" dxfId="449" priority="597" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P366:P371">
+  <conditionalFormatting sqref="P429:P434">
     <cfRule type="cellIs" dxfId="448" priority="596" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P380:P385">
-    <cfRule type="cellIs" dxfId="447" priority="595" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P394:P399">
-    <cfRule type="cellIs" dxfId="446" priority="594" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P408:P413">
-    <cfRule type="cellIs" dxfId="445" priority="593" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P422:P427">
-    <cfRule type="cellIs" dxfId="444" priority="592" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84:U90 N210:U210">
-    <cfRule type="cellIs" dxfId="443" priority="588" operator="equal">
+  <conditionalFormatting sqref="N84:U90 N217:U217">
+    <cfRule type="cellIs" dxfId="447" priority="592" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:U111 M106:Q111">
-    <cfRule type="cellIs" dxfId="442" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:U28">
-    <cfRule type="cellIs" dxfId="441" priority="544" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F210:L210 F85:M90">
-    <cfRule type="cellIs" dxfId="440" priority="591" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F210:M210 F84:M90">
-    <cfRule type="cellIs" dxfId="439" priority="590" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85:T90 N210:T210">
-    <cfRule type="cellIs" dxfId="438" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="548" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F217:L217 F85:M90">
+    <cfRule type="cellIs" dxfId="444" priority="595" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F217:M217 F84:M90">
+    <cfRule type="cellIs" dxfId="443" priority="594" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85:T90 N217:T217">
+    <cfRule type="cellIs" dxfId="442" priority="593" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111">
-    <cfRule type="cellIs" dxfId="437" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="581" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:M21">
-    <cfRule type="cellIs" dxfId="436" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="590" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:O111">
-    <cfRule type="cellIs" dxfId="435" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="583" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:U21">
-    <cfRule type="cellIs" dxfId="434" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="588" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:M111 H106:P111">
-    <cfRule type="cellIs" dxfId="433" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="582" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:L118">
-    <cfRule type="cellIs" dxfId="432" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="579" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="431" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="577" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="430" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="437" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N112:U112 R113:R118">
-    <cfRule type="cellIs" dxfId="429" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:Q111 K120:U125 N63:U76 N105:U125 N84:U97">
-    <cfRule type="cellIs" dxfId="428" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="568" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="427" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="567" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:M118">
-    <cfRule type="cellIs" dxfId="426" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="578" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="425" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="565" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113:Q118">
-    <cfRule type="cellIs" dxfId="424" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:M119">
+    <cfRule type="cellIs" dxfId="427" priority="574" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:Q125">
+    <cfRule type="cellIs" dxfId="426" priority="560" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119:U119">
+    <cfRule type="cellIs" dxfId="425" priority="572" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:L76 I71:M76 I85:M90 G120:M125 H64:M69 F105:L125 F84:L97">
+    <cfRule type="cellIs" dxfId="424" priority="571" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:O111 I71:O76 F63:M76 H64:N69 F105:M125 G120:Q125 F84:M97">
     <cfRule type="cellIs" dxfId="423" priority="570" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:Q125">
-    <cfRule type="cellIs" dxfId="422" priority="556" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N119:U119">
-    <cfRule type="cellIs" dxfId="421" priority="568" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64:L76 I71:M76 I85:M90 G120:M125 H64:M69 F105:L125 F84:L97">
-    <cfRule type="cellIs" dxfId="420" priority="567" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:O111 I71:O76 F63:M76 H64:N69 F105:M125 G120:Q125 F84:M97">
-    <cfRule type="cellIs" dxfId="419" priority="566" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M106:U111 Q113:U118 O71:U76 N64:T76 N105:T125 K120:U125 N84:T97">
-    <cfRule type="cellIs" dxfId="418" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="569" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113:U118">
-    <cfRule type="cellIs" dxfId="417" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
-    <cfRule type="cellIs" dxfId="416" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="564" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113:R118">
+    <cfRule type="cellIs" dxfId="419" priority="563" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="418" priority="556" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113:N118">
+    <cfRule type="cellIs" dxfId="417" priority="561" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="416" priority="554" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120:S125">
     <cfRule type="cellIs" dxfId="415" priority="559" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="414" priority="558" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:U125">
+    <cfRule type="cellIs" dxfId="413" priority="557" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:M97">
+    <cfRule type="cellIs" dxfId="412" priority="552" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:R125">
+    <cfRule type="cellIs" dxfId="411" priority="555" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N91:U97">
+    <cfRule type="cellIs" dxfId="410" priority="550" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:L97">
+    <cfRule type="cellIs" dxfId="409" priority="553" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:U97">
+    <cfRule type="cellIs" dxfId="408" priority="551" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:M28">
+    <cfRule type="cellIs" dxfId="407" priority="549" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="406" priority="385" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:S50">
+    <cfRule type="cellIs" dxfId="405" priority="436" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:U42">
+    <cfRule type="cellIs" dxfId="404" priority="526" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:S44 R44">
+    <cfRule type="cellIs" dxfId="403" priority="524" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:T44">
+    <cfRule type="cellIs" dxfId="402" priority="523" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:U49">
+    <cfRule type="cellIs" dxfId="401" priority="486" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="400" priority="399" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="399" priority="396" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="398" priority="387" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57:P62">
+    <cfRule type="cellIs" dxfId="397" priority="388" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="396" priority="386" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56:U56">
+    <cfRule type="cellIs" dxfId="395" priority="402" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62 O57:Q62">
+    <cfRule type="cellIs" dxfId="394" priority="400" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:M56">
+    <cfRule type="cellIs" dxfId="393" priority="403" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J62">
+    <cfRule type="cellIs" dxfId="392" priority="401" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:U62">
+    <cfRule type="cellIs" dxfId="391" priority="398" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:O62">
+    <cfRule type="cellIs" dxfId="390" priority="395" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="389" priority="394" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K62">
+    <cfRule type="cellIs" dxfId="388" priority="393" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
+    <cfRule type="cellIs" dxfId="387" priority="392" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
+    <cfRule type="cellIs" dxfId="386" priority="391" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="385" priority="390" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N62">
+    <cfRule type="cellIs" dxfId="384" priority="389" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126:U139">
+    <cfRule type="cellIs" dxfId="383" priority="381" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F127:L139">
+    <cfRule type="cellIs" dxfId="382" priority="384" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F126:M139">
+    <cfRule type="cellIs" dxfId="381" priority="383" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127:T139">
+    <cfRule type="cellIs" dxfId="380" priority="382" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="379" priority="379" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="378" priority="380" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="377" priority="378" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="376" priority="377" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="414" priority="552" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N113:N118">
-    <cfRule type="cellIs" dxfId="413" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="374" priority="375" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="373" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="412" priority="550" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120:S125">
-    <cfRule type="cellIs" dxfId="411" priority="555" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="410" priority="554" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:U125">
-    <cfRule type="cellIs" dxfId="409" priority="553" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:M97">
-    <cfRule type="cellIs" dxfId="408" priority="548" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:R125">
-    <cfRule type="cellIs" dxfId="407" priority="551" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N91:U97">
-    <cfRule type="cellIs" dxfId="406" priority="546" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:L97">
-    <cfRule type="cellIs" dxfId="405" priority="549" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92:U97">
-    <cfRule type="cellIs" dxfId="404" priority="547" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:M28">
-    <cfRule type="cellIs" dxfId="403" priority="545" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="402" priority="381" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R50:S50">
-    <cfRule type="cellIs" dxfId="401" priority="432" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:U42">
-    <cfRule type="cellIs" dxfId="400" priority="522" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:S44 R44">
-    <cfRule type="cellIs" dxfId="399" priority="520" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:T44">
-    <cfRule type="cellIs" dxfId="398" priority="519" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:U49">
-    <cfRule type="cellIs" dxfId="397" priority="482" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="396" priority="395" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="395" priority="392" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="394" priority="383" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P57:P62">
-    <cfRule type="cellIs" dxfId="393" priority="384" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="392" priority="382" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56:U56">
-    <cfRule type="cellIs" dxfId="391" priority="398" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62 O57:Q62">
-    <cfRule type="cellIs" dxfId="390" priority="396" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:M56">
-    <cfRule type="cellIs" dxfId="389" priority="399" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J62">
-    <cfRule type="cellIs" dxfId="388" priority="397" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:U62">
-    <cfRule type="cellIs" dxfId="387" priority="394" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O57:O62">
-    <cfRule type="cellIs" dxfId="386" priority="391" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="385" priority="390" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="cellIs" dxfId="384" priority="389" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58 L57:M58 K59:N62">
-    <cfRule type="cellIs" dxfId="383" priority="388" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K62 M59:O62 L57:N62">
-    <cfRule type="cellIs" dxfId="382" priority="387" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="381" priority="386" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N62">
-    <cfRule type="cellIs" dxfId="380" priority="385" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N126:U139">
-    <cfRule type="cellIs" dxfId="379" priority="377" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F127:L139">
-    <cfRule type="cellIs" dxfId="378" priority="380" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126:M139">
-    <cfRule type="cellIs" dxfId="377" priority="379" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N127:T139">
-    <cfRule type="cellIs" dxfId="376" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="373" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106:M111">
+    <cfRule type="cellIs" dxfId="371" priority="372" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="375" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="374" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O106:O111">
+    <cfRule type="cellIs" dxfId="368" priority="368" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="367" priority="369" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="366" priority="367" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="365" priority="366" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S118">
+    <cfRule type="cellIs" dxfId="364" priority="365" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R113:R118">
+    <cfRule type="cellIs" dxfId="363" priority="364" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="373" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="363" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="372" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="371" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="359" priority="360" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="358" priority="359" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="357" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="370" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="357" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M71:M76">
+    <cfRule type="cellIs" dxfId="355" priority="356" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71:N76">
+    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="369" priority="370" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="368" priority="369" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="367" priority="368" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="366" priority="366" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M111">
-    <cfRule type="cellIs" dxfId="365" priority="367" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O106:O111">
-    <cfRule type="cellIs" dxfId="364" priority="364" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="363" priority="365" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N106:N111">
-    <cfRule type="cellIs" dxfId="362" priority="363" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="361" priority="362" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S113:S118">
-    <cfRule type="cellIs" dxfId="360" priority="361" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R113:R118">
-    <cfRule type="cellIs" dxfId="359" priority="360" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="358" priority="359" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="357" priority="358" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="356" priority="357" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="355" priority="356" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="354" priority="355" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
     <cfRule type="cellIs" dxfId="353" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29241,17 +29500,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:M76">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="351" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N71:N76">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="350" priority="351" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="349" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29261,22 +29520,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="347" priority="348" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="347" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="344" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29291,32 +29550,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="339" priority="340" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="338" priority="339" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="337" priority="338" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="341" priority="342" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="340" priority="341" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="339" priority="340" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="338" priority="339" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="337" priority="338" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="336" priority="337" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29336,22 +29595,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="331" priority="332" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="330" priority="331" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="329" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29366,47 +29625,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="322" priority="323" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="321" priority="322" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="325" priority="326" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="324" priority="325" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="323" priority="324" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="322" priority="323" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="321" priority="322" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="320" priority="321" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="319" priority="320" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="318" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29416,22 +29675,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="316" priority="317" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="315" priority="316" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="316" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="315" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="315" priority="316" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="314" priority="315" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="313" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29446,42 +29705,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="310" priority="311" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="309" priority="310" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="309" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="309" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="308" priority="309" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="307" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="306" priority="307" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="306" priority="307" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="305" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="K120:K125">
     <cfRule type="cellIs" dxfId="304" priority="305" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="303" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29491,22 +29750,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="301" priority="302" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="300" priority="301" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="301" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="300" priority="301" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="299" priority="300" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
     <cfRule type="cellIs" dxfId="298" priority="299" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29521,47 +29780,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="295" priority="296" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:K125">
+    <cfRule type="cellIs" dxfId="293" priority="294" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="291" priority="292" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="290" priority="291" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="295" priority="296" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="293" priority="294" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="292" priority="293" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="291" priority="292" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="290" priority="291" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:K125">
-    <cfRule type="cellIs" dxfId="289" priority="290" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="288" priority="289" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
     <cfRule type="cellIs" dxfId="287" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29571,22 +29830,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="285" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="284" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="283" priority="284" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="282" priority="283" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29601,32 +29860,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="274" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29646,22 +29905,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="267" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29676,47 +29935,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L120:L125">
+    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="259" priority="260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="259" priority="260" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120:L125">
-    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
     <cfRule type="cellIs" dxfId="256" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29726,22 +29985,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="252" priority="253" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="251" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29756,127 +30015,127 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M120:M125">
+    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="245" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
+    <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:U35">
+    <cfRule type="cellIs" dxfId="243" priority="244" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:S37 Q37:R37">
+    <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:T37">
+    <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:L41">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J37">
+    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
+    <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98:U98">
+    <cfRule type="cellIs" dxfId="235" priority="236" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:S100 Q100:R100">
+    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:T100">
+    <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:L104">
+    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:J100">
+    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100:K100">
+    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R100">
+    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="245" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="243" priority="244" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120:M125">
-    <cfRule type="cellIs" dxfId="242" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38:U41 R37:S37 U36:U37 F36:R36 F35:M35 F37:H41 L37:R41">
-    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:U35">
-    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:S37 Q37:R37">
-    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:T37">
-    <cfRule type="cellIs" dxfId="237" priority="238" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:L41">
-    <cfRule type="cellIs" dxfId="236" priority="237" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:J37">
-    <cfRule type="cellIs" dxfId="235" priority="236" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="cellIs" dxfId="234" priority="235" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R101:U104 R100:S100 U99:U100 F99:R99 F98:M98 F100:H104 L100:Q104">
-    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N98:U98">
-    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S99:S100 Q100:R100">
-    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S99:T100">
-    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100:L104">
-    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100:J100">
-    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100:K100">
     <cfRule type="cellIs" dxfId="226" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R100">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="225" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="224" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29891,12 +30150,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="220" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29906,27 +30165,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29936,52 +30195,52 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="210" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="207" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="209" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="207" priority="208" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="203" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -29991,32 +30250,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="200" priority="201" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R120:R125">
+    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="197" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="200" priority="201" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="197" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="196" priority="197" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30026,22 +30285,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="194" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R120:R125">
-    <cfRule type="cellIs" dxfId="194" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="193" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="192" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="191" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30056,22 +30315,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30081,17 +30340,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="183" priority="184" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="183" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
     <cfRule type="cellIs" dxfId="181" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30101,12 +30360,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="179" priority="180" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="179" priority="180" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30116,12 +30375,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30131,12 +30390,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="172" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30151,12 +30410,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="168" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30166,27 +30425,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30196,17 +30455,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30216,7 +30475,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30226,12 +30485,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="153" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30241,12 +30500,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30256,12 +30515,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30276,12 +30535,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30291,27 +30550,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30321,12 +30580,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30341,12 +30600,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30361,12 +30620,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30376,12 +30635,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30391,12 +30650,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30411,12 +30670,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30426,27 +30685,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30456,52 +30715,52 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30511,32 +30770,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:Q125">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30546,22 +30805,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q120:Q125">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30576,22 +30835,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q120:Q125">
+  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30601,17 +30860,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N120:N125">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
     <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30621,12 +30880,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30636,12 +30895,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30651,12 +30910,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30671,12 +30930,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P120:P125">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
     <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30686,27 +30945,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O120:O125">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P120:P125">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120:O125">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N120:N125">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -30716,287 +30975,287 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P120:P125">
+  <conditionalFormatting sqref="O120:O125">
     <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F15:U20">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="F14:M14">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N125">
+  <conditionalFormatting sqref="N14:U14">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O120:O125">
+  <conditionalFormatting sqref="F78:U83">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:U20">
+  <conditionalFormatting sqref="F77:M77">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:M14">
+  <conditionalFormatting sqref="N77:U77">
     <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:U14">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:U83">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:M77">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N77:U77">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N140:U146">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:L146">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140:M146">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N141:T146">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147:U153">
     <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:L146">
+  <conditionalFormatting sqref="F148:L153">
     <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140:M146">
+  <conditionalFormatting sqref="F147:M153">
     <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N141:T146">
+  <conditionalFormatting sqref="N148:T153">
     <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:U153">
+  <conditionalFormatting sqref="N154:U160">
     <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148:L153">
+  <conditionalFormatting sqref="F155:L160">
     <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:M153">
+  <conditionalFormatting sqref="F154:M160">
     <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N148:T153">
+  <conditionalFormatting sqref="N155:T160">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:U160">
+  <conditionalFormatting sqref="N161:U167">
     <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155:L160">
+  <conditionalFormatting sqref="F162:M167">
     <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154:M160">
+  <conditionalFormatting sqref="F161:M167 K162:N167">
     <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155:T160">
+  <conditionalFormatting sqref="N162:T167">
     <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N161:U167">
+  <conditionalFormatting sqref="N168:U174 M170:O174">
     <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162:M167">
+  <conditionalFormatting sqref="F169:M174">
     <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161:M167 K162:N167">
+  <conditionalFormatting sqref="F168:M174 I169:N174">
     <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:T167">
+  <conditionalFormatting sqref="N169:T174 M170:O174">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N168:U174 M170:O174">
+  <conditionalFormatting sqref="N175:U181">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169:M174">
+  <conditionalFormatting sqref="F176:L181">
     <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168:M174 I169:N174">
+  <conditionalFormatting sqref="F175:M181">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:T174 M170:O174">
+  <conditionalFormatting sqref="N176:T181">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N175:U181">
+  <conditionalFormatting sqref="N133:U139">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F176:L181">
+  <conditionalFormatting sqref="K134:L139">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175:M181">
+  <conditionalFormatting sqref="F133:M133 K134:M139">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N176:T181">
+  <conditionalFormatting sqref="N134:T139">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:U139">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134:L139">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F133:M133 K134:M139">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N134:T139">
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:J139">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182:U188 K183:R188">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F183:O188">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134:J139">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N182:U188 K183:R188">
+  <conditionalFormatting sqref="F182:M188 F183:P188">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K183:U188">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N189:U195 J190:R195">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F183:O188">
+  <conditionalFormatting sqref="F190:P195">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182:M188 F183:P188">
+  <conditionalFormatting sqref="F189:M195 F190:Q195">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K183:U188">
+  <conditionalFormatting sqref="J190:U195">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N189:U195 J190:R195">
+  <conditionalFormatting sqref="N196:U202 J197:M202">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190:P195">
+  <conditionalFormatting sqref="F197:P202">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F189:M195 F190:Q195">
+  <conditionalFormatting sqref="F196:M202 N197:Q202">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J190:U195">
+  <conditionalFormatting sqref="J197:U202">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N196:U202 J197:M202">
+  <conditionalFormatting sqref="N203:U209 J204:M209">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F197:P202">
+  <conditionalFormatting sqref="F204:P209">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F196:M202 N197:Q202">
+  <conditionalFormatting sqref="F203:M209 N204:Q209">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J197:U202">
+  <conditionalFormatting sqref="J204:U209">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N203:U209 J204:M209">
+  <conditionalFormatting sqref="N210:U216 J211:M216">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F204:P209">
+  <conditionalFormatting sqref="F211:P216">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F203:M209 N204:Q209">
+  <conditionalFormatting sqref="F210:M216 N211:Q216">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J204:U209">
+  <conditionalFormatting sqref="J211:U216">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -31630,7 +31889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C26151-CF70-4A75-ADFC-9BB3B293083D}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
